--- a/pages/module5/unit-assignments/unit9/examples/Exa 9.3B.xlsx
+++ b/pages/module5/unit-assignments/unit9/examples/Exa 9.3B.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\essex_eportfolio\pages\module5\unit-assignments\unit9\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F4E521-1318-4066-89B1-929A10941991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="23730" yWindow="3600" windowWidth="21840" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="18">
   <si>
     <t>Diet</t>
   </si>
@@ -68,15 +87,18 @@
   <si>
     <t>Frequency</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,10 +147,10 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -156,13 +178,1029 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Diet A</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Diets!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Diets!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F8B-4961-9869-570A594B1BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="1873740832"/>
+        <c:axId val="1720279472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1873740832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Weight Loss (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720279472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1720279472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Relative Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1873740832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFEF5F9-2BD8-1FAA-84AE-8B4CA9229358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +1238,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,6 +1272,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,9 +1307,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,18 +1483,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +1518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -506,7 +1548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -520,8 +1562,22 @@
         <f>AVERAGE(B2:B51)</f>
         <v>5.3411999999999988</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="array" ref="I4:I10">FREQUENCY(B2:B51,H4:H10)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="5">
+        <f>I4/I$11</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -535,8 +1591,21 @@
         <f>STDEV(B2:B51)</f>
         <v>2.5356026132351492</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" ref="L5:L10" si="0">I5/I$11</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -546,8 +1615,21 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -557,8 +1639,25 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="F7" s="6">
+        <f>MIN(B2:B51)</f>
+        <v>-1.7150000000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,8 +1667,25 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="F8" s="6">
+        <f>MAX(B2:B51)</f>
+        <v>10.061999999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5">
+        <v>7</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -579,24 +1695,68 @@
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="F9" s="6">
+        <f>F8-F7</f>
+        <v>11.776999999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>9</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="H10" s="5">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>11</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>6.8810000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="4">
+        <f>SUM(I4:I10)</f>
+        <v>50</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM(L4:L10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -604,7 +1764,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -612,7 +1772,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,7 +1780,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -628,7 +1788,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -643,7 +1803,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -658,7 +1818,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -673,7 +1833,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -688,7 +1848,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -703,7 +1863,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -718,7 +1878,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +1893,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -748,7 +1908,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,7 +1923,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,7 +1938,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -793,7 +1953,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -808,7 +1968,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -823,7 +1983,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -838,7 +1998,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -853,7 +2013,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -868,7 +2028,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -883,7 +2043,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -891,7 +2051,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -899,7 +2059,7 @@
         <v>5.569</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -907,7 +2067,7 @@
         <v>6.7119999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -915,7 +2075,7 @@
         <v>3.6629999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -923,7 +2083,7 @@
         <v>2.7410000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -931,7 +2091,7 @@
         <v>6.2560000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,7 +2099,7 @@
         <v>5.3490000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -947,7 +2107,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -955,7 +2115,7 @@
         <v>5.4450000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -963,7 +2123,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -971,7 +2131,7 @@
         <v>3.613</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -979,7 +2139,7 @@
         <v>7.5679999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -987,7 +2147,7 @@
         <v>5.8609999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -995,7 +2155,7 @@
         <v>4.157</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +2163,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +2171,7 @@
         <v>4.4409999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +2179,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +2187,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +2195,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +2203,7 @@
         <v>-1.087</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +2211,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +2219,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +2227,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +2235,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +2243,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +2251,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +2259,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +2267,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +2275,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +2283,7 @@
         <v>-4.1479999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +2291,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +2299,7 @@
         <v>2.8650000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +2307,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +2315,7 @@
         <v>6.3369999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +2323,7 @@
         <v>6.3079999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +2331,7 @@
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +2339,7 @@
         <v>10.539</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +2347,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +2355,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +2363,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +2371,7 @@
         <v>-1.8939999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +2379,7 @@
         <v>8.016</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +2387,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +2395,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +2403,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +2411,7 @@
         <v>7.7270000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +2419,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -1267,7 +2427,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +2435,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +2443,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -1291,7 +2451,7 @@
         <v>5.1589999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +2459,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +2467,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +2475,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +2483,7 @@
         <v>5.5979999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +2491,7 @@
         <v>2.1619999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -1339,7 +2499,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +2507,7 @@
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +2515,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +2523,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +2531,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +2539,7 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +2547,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +2555,7 @@
         <v>6.0990000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +2563,7 @@
         <v>3.972</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +2571,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +2579,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -1427,7 +2587,7 @@
         <v>7.0129999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
@@ -1438,18 +2598,19 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1458,12 +2619,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
